--- a/mbs-perturbation/mega/svm/smote/mega-svm-poly-smote-results.xlsx
+++ b/mbs-perturbation/mega/svm/smote/mega-svm-poly-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8108108108108109</v>
+        <v>0.7393162393162394</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.9301075268817204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.8238095238095237</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7581367788183605</v>
+        <v>0.8817059775696612</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9426229508196722</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.6182795698924731</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3652173913043478</v>
+        <v>0.7467532467532468</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6969880911087988</v>
+        <v>0.7664758931668401</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9084967320261438</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.7473118279569892</v>
       </c>
       <c r="D4" t="n">
-        <v>0.515625</v>
+        <v>0.8200589970501475</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8666319805757891</v>
+        <v>0.8679905191351601</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.6816143497757847</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2688172043010753</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="D5" t="n">
-        <v>0.423728813559322</v>
+        <v>0.743276283618582</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8923568730020344</v>
+        <v>0.7453356582388841</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.8306878306878307</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2918918918918919</v>
+        <v>0.8486486486486486</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4518828451882845</v>
+        <v>0.839572192513369</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9027027027027028</v>
+        <v>0.896512641673932</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9416426816426817</v>
+        <v>0.8205476205251342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.292786980528916</v>
+        <v>0.7923103748910201</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4435985023180832</v>
+        <v>0.7946940487489739</v>
       </c>
       <c r="E7" t="n">
-        <v>0.823363285241537</v>
+        <v>0.8316041379568955</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/mega/svm/smote/mega-svm-poly-smote-results.xlsx
+++ b/mbs-perturbation/mega/svm/smote/mega-svm-poly-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7393162393162394</v>
+        <v>0.7248677248677249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9301075268817204</v>
+        <v>0.8106508875739645</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8238095238095237</v>
+        <v>0.76536312849162</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8817059775696612</v>
+        <v>0.7647141206540387</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9426229508196722</v>
+        <v>0.808641975308642</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6182795698924731</v>
+        <v>0.7751479289940828</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7467532467532468</v>
+        <v>0.7915407854984895</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7664758931668401</v>
+        <v>0.8027029865901054</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9084967320261438</v>
+        <v>0.95</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7473118279569892</v>
+        <v>0.7869822485207101</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8200589970501475</v>
+        <v>0.8608414239482201</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8679905191351601</v>
+        <v>0.8536815937817304</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6816143497757847</v>
+        <v>0.7974683544303798</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8172043010752689</v>
+        <v>0.7455621301775148</v>
       </c>
       <c r="D5" t="n">
-        <v>0.743276283618582</v>
+        <v>0.7706422018348623</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7453356582388841</v>
+        <v>0.8564125905955673</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8306878306878307</v>
+        <v>0.992</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8486486486486486</v>
+        <v>0.7337278106508875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.839572192513369</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="E6" t="n">
-        <v>0.896512641673932</v>
+        <v>0.9807779839641469</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8205476205251342</v>
+        <v>0.8545956109213494</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7923103748910201</v>
+        <v>0.770414201183432</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7946940487489739</v>
+        <v>0.8063849909478357</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8316041379568955</v>
+        <v>0.8516578551171177</v>
       </c>
     </row>
   </sheetData>
